--- a/TIMES-NZ/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-NZ/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\NZ_TIMES_model-v73.2\SuppXLS\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weerasa\TIMES-NZ-Model-Files\TIMES-NZ\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90452052-2DA5-4D3A-9FAC-D6B6B16E7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19035" windowHeight="13740"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Uni" sheetId="3" r:id="rId1"/>
-    <sheet name="Bi" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Documentation" sheetId="4" r:id="rId1"/>
+    <sheet name="Uni" sheetId="3" r:id="rId2"/>
+    <sheet name="Bi" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
   <si>
     <t>~TradeLinks</t>
   </si>
@@ -66,12 +67,21 @@
   </si>
   <si>
     <t>DIJ</t>
+  </si>
+  <si>
+    <t>Workbook: Defines all unilateral and/or bilateral trade links between regions</t>
+  </si>
+  <si>
+    <t>Uni: Unilateral trade links</t>
+  </si>
+  <si>
+    <t>Bi: Bilateral trade links</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -190,9 +200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,9 +240,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,29 +485,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCBB311-BA01-48A7-B93B-A81F7D0D8AE8}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
@@ -508,7 +548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
@@ -517,19 +557,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
@@ -540,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
@@ -549,19 +589,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
@@ -572,7 +612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
@@ -581,19 +621,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
@@ -604,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
         <v>2</v>
       </c>
@@ -613,19 +653,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
@@ -636,7 +676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
         <v>2</v>
       </c>
@@ -645,19 +685,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
@@ -668,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
         <v>2</v>
       </c>
@@ -677,19 +717,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
@@ -700,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
@@ -718,12 +758,12 @@
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
@@ -734,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
         <v>2</v>
       </c>
@@ -743,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
         <v>3</v>
       </c>
@@ -752,10 +792,10 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" s="3" t="s">
         <v>12</v>
       </c>
@@ -766,26 +806,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
@@ -796,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
         <v>2</v>
       </c>
@@ -805,19 +845,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60" s="3" t="s">
         <v>14</v>
       </c>
@@ -828,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
         <v>2</v>
       </c>
@@ -837,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
@@ -852,24 +892,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -880,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -889,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -903,18 +943,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>